--- a/Gráficas/TFM_grafica.xlsx
+++ b/Gráficas/TFM_grafica.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valde\Desktop\TFM MIERA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E6D22F-9130-43BA-8528-9DC7D9A25B71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1247B3E-01DC-46F7-BA3B-1FABB4BA615B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="229">
   <si>
     <t>DenseNet121_CPU</t>
   </si>
@@ -67,12 +67,6 @@
     <t>ResNet50_RPi_NCS</t>
   </si>
   <si>
-    <t>0.0207</t>
-  </si>
-  <si>
-    <t>0.313</t>
-  </si>
-  <si>
     <t>0.148</t>
   </si>
   <si>
@@ -94,15 +88,6 @@
     <t>0.0185</t>
   </si>
   <si>
-    <t>0.248</t>
-  </si>
-  <si>
-    <t>0.303</t>
-  </si>
-  <si>
-    <t>0.286</t>
-  </si>
-  <si>
     <t>0.193</t>
   </si>
   <si>
@@ -139,18 +124,6 @@
     <t>0.133</t>
   </si>
   <si>
-    <t>0.0171</t>
-  </si>
-  <si>
-    <t>0.258</t>
-  </si>
-  <si>
-    <t>0.311</t>
-  </si>
-  <si>
-    <t>0.273</t>
-  </si>
-  <si>
     <t>0.154</t>
   </si>
   <si>
@@ -175,18 +148,6 @@
     <t>0.0913</t>
   </si>
   <si>
-    <t>0.019</t>
-  </si>
-  <si>
-    <t>0.271</t>
-  </si>
-  <si>
-    <t>0.306</t>
-  </si>
-  <si>
-    <t>0.274</t>
-  </si>
-  <si>
     <t>0.267</t>
   </si>
   <si>
@@ -220,15 +181,6 @@
     <t>0.018</t>
   </si>
   <si>
-    <t>0.276</t>
-  </si>
-  <si>
-    <t>0.301</t>
-  </si>
-  <si>
-    <t>0.277</t>
-  </si>
-  <si>
     <t>0.125</t>
   </si>
   <si>
@@ -253,15 +205,6 @@
     <t>0.0181</t>
   </si>
   <si>
-    <t>0.262</t>
-  </si>
-  <si>
-    <t>0.319</t>
-  </si>
-  <si>
-    <t>0.304</t>
-  </si>
-  <si>
     <t>0.181</t>
   </si>
   <si>
@@ -286,9 +229,6 @@
     <t>0.0182</t>
   </si>
   <si>
-    <t>0.284</t>
-  </si>
-  <si>
     <t>0.179</t>
   </si>
   <si>
@@ -310,12 +250,6 @@
     <t>0.141</t>
   </si>
   <si>
-    <t>0.255</t>
-  </si>
-  <si>
-    <t>0.298</t>
-  </si>
-  <si>
     <t>0.189</t>
   </si>
   <si>
@@ -328,15 +262,6 @@
     <t>0.0187</t>
   </si>
   <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.308</t>
-  </si>
-  <si>
-    <t>0.289</t>
-  </si>
-  <si>
     <t>0.17</t>
   </si>
   <si>
@@ -352,18 +277,6 @@
     <t>0.0912</t>
   </si>
   <si>
-    <t>0.0183</t>
-  </si>
-  <si>
-    <t>0.251</t>
-  </si>
-  <si>
-    <t>0.312</t>
-  </si>
-  <si>
-    <t>0.278</t>
-  </si>
-  <si>
     <t>0.183</t>
   </si>
   <si>
@@ -388,18 +301,6 @@
     <t>0.0788</t>
   </si>
   <si>
-    <t>0.0197</t>
-  </si>
-  <si>
-    <t>0.263</t>
-  </si>
-  <si>
-    <t>0.307</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
     <t>0.182</t>
   </si>
   <si>
@@ -415,12 +316,6 @@
     <t>0.117</t>
   </si>
   <si>
-    <t>0.0228</t>
-  </si>
-  <si>
-    <t>0.256</t>
-  </si>
-  <si>
     <t>1.5</t>
   </si>
   <si>
@@ -439,15 +334,6 @@
     <t>0.107</t>
   </si>
   <si>
-    <t>0.253</t>
-  </si>
-  <si>
-    <t>0.309</t>
-  </si>
-  <si>
-    <t>0.291</t>
-  </si>
-  <si>
     <t>1.45</t>
   </si>
   <si>
@@ -460,15 +346,6 @@
     <t>0.0888</t>
   </si>
   <si>
-    <t>0.0193</t>
-  </si>
-  <si>
-    <t>0.254</t>
-  </si>
-  <si>
-    <t>0.297</t>
-  </si>
-  <si>
     <t>0.166</t>
   </si>
   <si>
@@ -490,15 +367,6 @@
     <t>0.0819</t>
   </si>
   <si>
-    <t>0.0192</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>0.279</t>
-  </si>
-  <si>
     <t>0.164</t>
   </si>
   <si>
@@ -514,15 +382,6 @@
     <t>0.128</t>
   </si>
   <si>
-    <t>0.0268</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>0.314</t>
-  </si>
-  <si>
     <t>0.188</t>
   </si>
   <si>
@@ -538,12 +397,6 @@
     <t>0.157</t>
   </si>
   <si>
-    <t>0.257</t>
-  </si>
-  <si>
-    <t>0.285</t>
-  </si>
-  <si>
     <t>0.168</t>
   </si>
   <si>
@@ -556,15 +409,6 @@
     <t>0.104</t>
   </si>
   <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>0.295</t>
-  </si>
-  <si>
-    <t>0.272</t>
-  </si>
-  <si>
     <t>0.169</t>
   </si>
   <si>
@@ -580,9 +424,6 @@
     <t>0.116</t>
   </si>
   <si>
-    <t>0.269</t>
-  </si>
-  <si>
     <t>0.151</t>
   </si>
   <si>
@@ -604,12 +445,6 @@
     <t>0.0216</t>
   </si>
   <si>
-    <t>0.261</t>
-  </si>
-  <si>
-    <t>0.315</t>
-  </si>
-  <si>
     <t>0.158</t>
   </si>
   <si>
@@ -622,12 +457,6 @@
     <t>0.079</t>
   </si>
   <si>
-    <t>0.0226</t>
-  </si>
-  <si>
-    <t>0.249</t>
-  </si>
-  <si>
     <t>0.177</t>
   </si>
   <si>
@@ -649,12 +478,6 @@
     <t>0.0722</t>
   </si>
   <si>
-    <t>0.264</t>
-  </si>
-  <si>
-    <t>0.326</t>
-  </si>
-  <si>
     <t>1.99</t>
   </si>
   <si>
@@ -676,15 +499,6 @@
     <t>0.0713</t>
   </si>
   <si>
-    <t>0.0191</t>
-  </si>
-  <si>
-    <t>0.299</t>
-  </si>
-  <si>
-    <t>0.292</t>
-  </si>
-  <si>
     <t>0.147</t>
   </si>
   <si>
@@ -706,9 +520,6 @@
     <t>0.0904</t>
   </si>
   <si>
-    <t>0.0172</t>
-  </si>
-  <si>
     <t>0.173</t>
   </si>
   <si>
@@ -733,9 +544,6 @@
     <t>0.0879</t>
   </si>
   <si>
-    <t>0.34</t>
-  </si>
-  <si>
     <t>0.0112</t>
   </si>
   <si>
@@ -748,9 +556,6 @@
     <t>0.0779</t>
   </si>
   <si>
-    <t>0.0173</t>
-  </si>
-  <si>
     <t>0.0353</t>
   </si>
   <si>
@@ -766,12 +571,6 @@
     <t>0.0818</t>
   </si>
   <si>
-    <t>0.302</t>
-  </si>
-  <si>
-    <t>0.268</t>
-  </si>
-  <si>
     <t>0.175</t>
   </si>
   <si>
@@ -779,12 +578,145 @@
   </si>
   <si>
     <t>Valderas_CPU</t>
+  </si>
+  <si>
+    <t>0.00181</t>
+  </si>
+  <si>
+    <t>0.0374</t>
+  </si>
+  <si>
+    <t>0.0767</t>
+  </si>
+  <si>
+    <t>0.0799</t>
+  </si>
+  <si>
+    <t>0.00177</t>
+  </si>
+  <si>
+    <t>0.0018</t>
+  </si>
+  <si>
+    <t>0.0373</t>
+  </si>
+  <si>
+    <t>0.0719</t>
+  </si>
+  <si>
+    <t>0.074</t>
+  </si>
+  <si>
+    <t>0.00179</t>
+  </si>
+  <si>
+    <t>0.022</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.0735</t>
+  </si>
+  <si>
+    <t>0.0677</t>
+  </si>
+  <si>
+    <t>0.0669</t>
+  </si>
+  <si>
+    <t>0.0648</t>
+  </si>
+  <si>
+    <t>0.00178</t>
+  </si>
+  <si>
+    <t>0.0644</t>
+  </si>
+  <si>
+    <t>0.0616</t>
+  </si>
+  <si>
+    <t>0.00184</t>
+  </si>
+  <si>
+    <t>0.021</t>
+  </si>
+  <si>
+    <t>0.0613</t>
+  </si>
+  <si>
+    <t>0.0643</t>
+  </si>
+  <si>
+    <t>0.0615</t>
+  </si>
+  <si>
+    <t>0.0641</t>
+  </si>
+  <si>
+    <t>0.0608</t>
+  </si>
+  <si>
+    <t>0.0206</t>
+  </si>
+  <si>
+    <t>0.0611</t>
+  </si>
+  <si>
+    <t>0.064</t>
+  </si>
+  <si>
+    <t>0.00182</t>
+  </si>
+  <si>
+    <t>0.0607</t>
+  </si>
+  <si>
+    <t>0.0179</t>
+  </si>
+  <si>
+    <t>0.0645</t>
+  </si>
+  <si>
+    <t>0.0606</t>
+  </si>
+  <si>
+    <t>0.0624</t>
+  </si>
+  <si>
+    <t>0.0622</t>
+  </si>
+  <si>
+    <t>0.0642</t>
+  </si>
+  <si>
+    <t>0.0188</t>
+  </si>
+  <si>
+    <t>0.0612</t>
+  </si>
+  <si>
+    <t>0.061</t>
+  </si>
+  <si>
+    <t>0.00186</t>
+  </si>
+  <si>
+    <t>0.0646</t>
+  </si>
+  <si>
+    <t>0.0623</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1262,10 +1194,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1624,33 +1565,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
     <col min="12" max="12" width="17.140625" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="22.5703125" customWidth="1"/>
-    <col min="15" max="15" width="22" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1700,1452 +1640,1452 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="P4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>88</v>
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>104</v>
+        <v>78</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>113</v>
+        <v>84</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>125</v>
+        <v>92</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>42</v>
+        <v>97</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>141</v>
+        <v>103</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>158</v>
+        <v>114</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="P15" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>158</v>
+        <v>49</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>173</v>
+        <v>97</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="M18" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="N19" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>66</v>
+      <c r="F20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>113</v>
+        <v>144</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>66</v>
+      <c r="F22" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="L22" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>123</v>
+        <v>151</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>220</v>
+        <v>158</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="L24" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="N25" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="I26" s="1" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="K26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P26" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>231</v>
+        <v>168</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>123</v>
+        <v>138</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>104</v>
+        <v>173</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="K28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="N28" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>240</v>
+        <v>176</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>68</v>
+        <v>177</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="L29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P29" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>244</v>
+        <v>179</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>245</v>
+        <v>180</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>249</v>
+        <v>182</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
